--- a/results/Preliminaries-Canada.xlsx
+++ b/results/Preliminaries-Canada.xlsx
@@ -60,31 +60,31 @@
     <t>2019</t>
   </si>
   <si>
-    <t xml:space="preserve">BQ </t>
-  </si>
-  <si>
-    <t>Ind</t>
-  </si>
-  <si>
-    <t>Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC </t>
-  </si>
-  <si>
-    <t>RPC</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP </t>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)</t>
+  </si>
+  <si>
+    <t>GP - Green Party of Canada (Green Party of Canada, GP)</t>
   </si>
   <si>
     <t>Key</t>
@@ -114,394 +114,394 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>BQ +Ind</t>
-  </si>
-  <si>
-    <t>BQ +Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +PC </t>
-  </si>
-  <si>
-    <t>BQ +RPC</t>
-  </si>
-  <si>
-    <t>Ind+Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ind+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ind+PC </t>
-  </si>
-  <si>
-    <t>Ind+RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lib+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lib+PC </t>
-  </si>
-  <si>
-    <t>Lib+RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND +PC </t>
-  </si>
-  <si>
-    <t>ND +RPC</t>
-  </si>
-  <si>
-    <t>PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Ind+Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Ind+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Ind+PC </t>
-  </si>
-  <si>
-    <t>BQ +Ind+RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Lib+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Lib+PC </t>
-  </si>
-  <si>
-    <t>BQ +Lib+RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +ND +PC </t>
-  </si>
-  <si>
-    <t>BQ +ND +RPC</t>
-  </si>
-  <si>
-    <t>BQ +PC +RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ind+Lib+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ind+Lib+PC </t>
-  </si>
-  <si>
-    <t>Ind+Lib+RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ind+ND +PC </t>
-  </si>
-  <si>
-    <t>Ind+ND +RPC</t>
-  </si>
-  <si>
-    <t>Ind+PC +RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lib+ND +PC </t>
-  </si>
-  <si>
-    <t>Lib+ND +RPC</t>
-  </si>
-  <si>
-    <t>Lib+PC +RPC</t>
-  </si>
-  <si>
-    <t>ND +PC +RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Ind+Lib+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Ind+Lib+PC </t>
-  </si>
-  <si>
-    <t>BQ +Ind+Lib+RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Ind+ND +PC </t>
-  </si>
-  <si>
-    <t>BQ +Ind+ND +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Ind+PC +RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Lib+ND +PC </t>
-  </si>
-  <si>
-    <t>BQ +Lib+ND +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Lib+PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +ND +PC +RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ind+Lib+ND +PC </t>
-  </si>
-  <si>
-    <t>Ind+Lib+ND +RPC</t>
-  </si>
-  <si>
-    <t>Ind+Lib+PC +RPC</t>
-  </si>
-  <si>
-    <t>Ind+ND +PC +RPC</t>
-  </si>
-  <si>
-    <t>Lib+ND +PC +RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Ind+Lib+ND +PC </t>
-  </si>
-  <si>
-    <t>BQ +Ind+Lib+ND +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Ind+Lib+PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Ind+ND +PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Lib+ND +PC +RPC</t>
-  </si>
-  <si>
-    <t>Ind+Lib+ND +PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Ind+Lib+ND +PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Non</t>
-  </si>
-  <si>
-    <t>Lib+Non</t>
-  </si>
-  <si>
-    <t>ND +Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non+PC </t>
-  </si>
-  <si>
-    <t>Non+RPC</t>
-  </si>
-  <si>
-    <t>BQ +Lib+Non</t>
-  </si>
-  <si>
-    <t>BQ +ND +Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Non+PC </t>
-  </si>
-  <si>
-    <t>BQ +Non+RPC</t>
-  </si>
-  <si>
-    <t>Lib+ND +Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lib+Non+PC </t>
-  </si>
-  <si>
-    <t>Lib+Non+RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND +Non+PC </t>
-  </si>
-  <si>
-    <t>ND +Non+RPC</t>
-  </si>
-  <si>
-    <t>Non+PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Lib+ND +Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Lib+Non+PC </t>
-  </si>
-  <si>
-    <t>BQ +Lib+Non+RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +ND +Non+PC </t>
-  </si>
-  <si>
-    <t>BQ +ND +Non+RPC</t>
-  </si>
-  <si>
-    <t>BQ +Non+PC +RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lib+ND +Non+PC </t>
-  </si>
-  <si>
-    <t>Lib+ND +Non+RPC</t>
-  </si>
-  <si>
-    <t>Lib+Non+PC +RPC</t>
-  </si>
-  <si>
-    <t>ND +Non+PC +RPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Lib+ND +Non+PC </t>
-  </si>
-  <si>
-    <t>BQ +Lib+ND +Non+RPC</t>
-  </si>
-  <si>
-    <t>BQ +Lib+Non+PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +ND +Non+PC +RPC</t>
-  </si>
-  <si>
-    <t>Lib+ND +Non+PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Lib+ND +Non+PC +RPC</t>
-  </si>
-  <si>
-    <t>BQ +Con</t>
-  </si>
-  <si>
-    <t>Con+Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con+ND </t>
-  </si>
-  <si>
-    <t>Con+Non</t>
-  </si>
-  <si>
-    <t>BQ +Con+Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Con+ND </t>
-  </si>
-  <si>
-    <t>BQ +Con+Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con+Lib+ND </t>
-  </si>
-  <si>
-    <t>Con+Lib+Non</t>
-  </si>
-  <si>
-    <t>Con+ND +Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Con+Lib+ND </t>
-  </si>
-  <si>
-    <t>BQ +Con+Lib+Non</t>
-  </si>
-  <si>
-    <t>BQ +Con+ND +Non</t>
-  </si>
-  <si>
-    <t>Con+Lib+ND +Non</t>
-  </si>
-  <si>
-    <t>BQ +Con+Lib+ND +Non</t>
-  </si>
-  <si>
-    <t>Con+Ind</t>
-  </si>
-  <si>
-    <t>BQ +Con+Ind</t>
-  </si>
-  <si>
-    <t>Con+Ind+Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con+Ind+ND </t>
-  </si>
-  <si>
-    <t>BQ +Con+Ind+Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Con+Ind+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con+Ind+Lib+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Con+Ind+Lib+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con+GP </t>
-  </si>
-  <si>
-    <t>GP +Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Con+GP </t>
-  </si>
-  <si>
-    <t>BQ +GP +Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +GP +ND </t>
-  </si>
-  <si>
-    <t>Con+GP +Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con+GP +ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP +Lib+ND </t>
-  </si>
-  <si>
-    <t>BQ +Con+GP +Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Con+GP +ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +GP +Lib+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con+GP +Lib+ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ +Con+GP +Lib+ND </t>
-  </si>
-  <si>
-    <t>('Lib+ND ', 'BQ +Con+Non')</t>
-  </si>
-  <si>
-    <t>('BQ +Con+Non', 'Lib+ND ')</t>
-  </si>
-  <si>
-    <t>('BQ +Lib', 'Con+Ind+ND ')</t>
-  </si>
-  <si>
-    <t>('Con+Ind+ND ', 'BQ +Lib')</t>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>ND - New Democratic (New Democratic, ND)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+ND - New Democratic (New Democratic, ND)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>None - No-Affiliation (No-Affiliation, None)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+None - No-Affiliation (No-Affiliation, None)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)+PC - Progressive Conservative  (Progressive Conservative , PC)+RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+Lib - Liberal  (Liberal , Lib)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)+None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+GP - Green Party of Canada (Green Party of Canada, GP)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+GP - Green Party of Canada (Green Party of Canada, GP)</t>
+  </si>
+  <si>
+    <t>GP - Green Party of Canada (Green Party of Canada, GP)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>GP - Green Party of Canada (Green Party of Canada, GP)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+GP - Green Party of Canada (Green Party of Canada, GP)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+GP - Green Party of Canada (Green Party of Canada, GP)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+GP - Green Party of Canada (Green Party of Canada, GP)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+GP - Green Party of Canada (Green Party of Canada, GP)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+GP - Green Party of Canada (Green Party of Canada, GP)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>GP - Green Party of Canada (Green Party of Canada, GP)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+GP - Green Party of Canada (Green Party of Canada, GP)+Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+GP - Green Party of Canada (Green Party of Canada, GP)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+GP - Green Party of Canada (Green Party of Canada, GP)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)+GP - Green Party of Canada (Green Party of Canada, GP)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+GP - Green Party of Canada (Green Party of Canada, GP)+Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>('Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)', 'BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+None - No-Affiliation (No-Affiliation, None)')</t>
+  </si>
+  <si>
+    <t>('BQ - Bloc Québécois (Bloc Québécois, BQ)+Con - Conservative (Conservative, Con)+None - No-Affiliation (No-Affiliation, None)', 'Lib - Liberal  (Liberal , Lib)+ND - New Democratic (New Democratic, ND)')</t>
+  </si>
+  <si>
+    <t>('BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)', 'Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)')</t>
+  </si>
+  <si>
+    <t>('Con - Conservative (Conservative, Con)+Ind - Independents (Independents, Ind)+ND - New Democratic (New Democratic, ND)', 'BQ - Bloc Québécois (Bloc Québécois, BQ)+Lib - Liberal  (Liberal , Lib)')</t>
   </si>
 </sst>
 </file>
